--- a/data/output/FV2304_FV2210/INVOIC/31003.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="342">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4129" uniqueCount="342">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1200,6 +1200,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U201" totalsRowShown="0">
+  <autoFilter ref="A1:U201"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1489,7 +1519,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10581,5 +10614,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/INVOIC/31003.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4872" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4706" uniqueCount="530">
   <si>
     <t>#</t>
   </si>
@@ -7469,48 +7469,46 @@
       <c r="V113" s="11"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5" t="s">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M114" s="5" t="s">
+      <c r="K114" s="2"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N114" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O114" s="5" t="s">
+      <c r="O114" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5" t="s">
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V114" s="5"/>
+      <c r="V114" s="2"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="5" t="s">
@@ -7540,9 +7538,7 @@
         <v>273</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>39</v>
       </c>
@@ -7596,9 +7592,7 @@
       <c r="K116" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L116" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>39</v>
       </c>
@@ -7625,44 +7619,42 @@
       </c>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5" t="s">
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M117" s="5" t="s">
+      <c r="K117" s="2"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N117" s="5" t="s">
+      <c r="N117" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5" t="s">
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V117" s="5"/>
+      <c r="V117" s="2"/>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="5" t="s">
@@ -7686,9 +7678,7 @@
         <v>272</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>40</v>
       </c>
@@ -7736,9 +7726,7 @@
         <v>273</v>
       </c>
       <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L119" s="4"/>
       <c r="M119" s="5" t="s">
         <v>40</v>
       </c>
@@ -7792,9 +7780,7 @@
         <v>273</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>40</v>
       </c>
@@ -7848,9 +7834,7 @@
         <v>273</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>40</v>
       </c>
@@ -7877,44 +7861,42 @@
       <c r="V121" s="5"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5" t="s">
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M122" s="5" t="s">
+      <c r="K122" s="2"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N122" s="5" t="s">
+      <c r="N122" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5" t="s">
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V122" s="5"/>
+      <c r="V122" s="2"/>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="5" t="s">
@@ -7938,9 +7920,7 @@
         <v>272</v>
       </c>
       <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L123" s="4"/>
       <c r="M123" s="5" t="s">
         <v>41</v>
       </c>
@@ -7988,9 +7968,7 @@
         <v>273</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>41</v>
       </c>
@@ -8017,48 +7995,46 @@
       <c r="V124" s="5"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5" t="s">
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M125" s="5" t="s">
+      <c r="K125" s="2"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N125" s="5" t="s">
+      <c r="N125" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O125" s="5" t="s">
+      <c r="O125" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
-      <c r="R125" s="5"/>
-      <c r="S125" s="5"/>
-      <c r="T125" s="5"/>
-      <c r="U125" s="5" t="s">
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V125" s="5"/>
+      <c r="V125" s="2"/>
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="5" t="s">
@@ -8088,9 +8064,7 @@
         <v>273</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>42</v>
       </c>
@@ -8200,9 +8174,7 @@
         <v>273</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>42</v>
       </c>
@@ -8229,44 +8201,42 @@
       <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5" t="s">
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M129" s="5" t="s">
+      <c r="K129" s="2"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N129" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5" t="s">
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V129" s="5"/>
+      <c r="V129" s="2"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="5" t="s">
@@ -8290,9 +8260,7 @@
         <v>272</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>43</v>
       </c>
@@ -8340,9 +8308,7 @@
       <c r="K131" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L131" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>43</v>
       </c>
@@ -8396,9 +8362,7 @@
       <c r="K132" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L132" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>43</v>
       </c>
@@ -8452,9 +8416,7 @@
         <v>273</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>43</v>
       </c>
@@ -8481,48 +8443,46 @@
       <c r="V133" s="5"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5" t="s">
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M134" s="5" t="s">
+      <c r="K134" s="2"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N134" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O134" s="5" t="s">
+      <c r="O134" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="5"/>
-      <c r="U134" s="5" t="s">
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V134" s="5"/>
+      <c r="V134" s="2"/>
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="5" t="s">
@@ -8552,9 +8512,7 @@
         <v>273</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>44</v>
       </c>
@@ -8608,9 +8566,7 @@
       <c r="K136" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L136" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>44</v>
       </c>
@@ -8697,50 +8653,48 @@
       </c>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5" t="s">
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K138" s="5" t="s">
+      <c r="K138" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="L138" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M138" s="5" t="s">
+      <c r="L138" s="4"/>
+      <c r="M138" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N138" s="5" t="s">
+      <c r="N138" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O138" s="5" t="s">
+      <c r="O138" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5"/>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="5"/>
-      <c r="U138" s="5" t="s">
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="V138" s="5" t="s">
+      <c r="V138" s="2" t="s">
         <v>318</v>
       </c>
     </row>
@@ -8772,9 +8726,7 @@
         <v>273</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>45</v>
       </c>
@@ -8828,9 +8780,7 @@
       <c r="K140" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L140" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>45</v>
       </c>
@@ -8884,9 +8834,7 @@
         <v>273</v>
       </c>
       <c r="K141" s="5"/>
-      <c r="L141" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>45</v>
       </c>
@@ -8940,9 +8888,7 @@
         <v>273</v>
       </c>
       <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L142" s="4"/>
       <c r="M142" s="5" t="s">
         <v>45</v>
       </c>
@@ -9029,50 +8975,48 @@
       </c>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5" t="s">
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K144" s="5" t="s">
+      <c r="K144" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="L144" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M144" s="5" t="s">
+      <c r="L144" s="4"/>
+      <c r="M144" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N144" s="5" t="s">
+      <c r="N144" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O144" s="5" t="s">
+      <c r="O144" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5" t="s">
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="V144" s="5" t="s">
+      <c r="V144" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -9104,9 +9048,7 @@
         <v>273</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>46</v>
       </c>
@@ -9158,9 +9100,7 @@
         <v>276</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>46</v>
       </c>
@@ -9212,9 +9152,7 @@
         <v>273</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>46</v>
       </c>
@@ -9241,50 +9179,48 @@
       <c r="V147" s="5"/>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5" t="s">
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K148" s="5" t="s">
+      <c r="K148" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="L148" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M148" s="5" t="s">
+      <c r="L148" s="4"/>
+      <c r="M148" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N148" s="5" t="s">
+      <c r="N148" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O148" s="5" t="s">
+      <c r="O148" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
-      <c r="T148" s="5"/>
-      <c r="U148" s="5" t="s">
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="V148" s="5" t="s">
+      <c r="V148" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -9316,9 +9252,7 @@
         <v>273</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>47</v>
       </c>
@@ -9370,9 +9304,7 @@
         <v>276</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>47</v>
       </c>
@@ -9424,9 +9356,7 @@
         <v>273</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>47</v>
       </c>
@@ -9453,50 +9383,48 @@
       <c r="V151" s="5"/>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5" t="s">
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="K152" s="5" t="s">
+      <c r="K152" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="L152" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M152" s="5" t="s">
+      <c r="L152" s="4"/>
+      <c r="M152" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N152" s="5" t="s">
+      <c r="N152" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O152" s="5" t="s">
+      <c r="O152" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
-      <c r="U152" s="5" t="s">
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
+      <c r="U152" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="V152" s="5" t="s">
+      <c r="V152" s="2" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9528,9 +9456,7 @@
         <v>273</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>28</v>
       </c>
@@ -9584,9 +9510,7 @@
       <c r="K154" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="L154" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>28</v>
       </c>
@@ -9640,9 +9564,7 @@
         <v>273</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>28</v>
       </c>
@@ -9669,44 +9591,42 @@
       <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5" t="s">
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M156" s="5" t="s">
+      <c r="K156" s="2"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N156" s="5" t="s">
+      <c r="N156" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5" t="s">
+      <c r="O156" s="2"/>
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V156" s="5"/>
+      <c r="V156" s="2"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="5" t="s">
@@ -9730,9 +9650,7 @@
         <v>272</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>48</v>
       </c>
@@ -9780,9 +9698,7 @@
         <v>273</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>48</v>
       </c>
@@ -9836,9 +9752,7 @@
       <c r="K159" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="L159" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>48</v>
       </c>
@@ -9865,44 +9779,42 @@
       </c>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5" t="s">
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M160" s="5" t="s">
+      <c r="K160" s="2"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5" t="s">
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V160" s="5"/>
+      <c r="V160" s="2"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="5" t="s">
@@ -9926,9 +9838,7 @@
         <v>272</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>49</v>
       </c>
@@ -9976,9 +9886,7 @@
         <v>273</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>49</v>
       </c>
@@ -10032,9 +9940,7 @@
       <c r="K163" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="L163" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>49</v>
       </c>
@@ -10088,9 +9994,7 @@
         <v>299</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>49</v>
       </c>
@@ -10144,9 +10048,7 @@
         <v>299</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>49</v>
       </c>
@@ -10233,44 +10135,42 @@
       </c>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5" t="s">
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M167" s="5" t="s">
+      <c r="K167" s="2"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N167" s="5" t="s">
+      <c r="N167" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O167" s="5"/>
-      <c r="P167" s="5"/>
-      <c r="Q167" s="5"/>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
-      <c r="U167" s="5" t="s">
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V167" s="5"/>
+      <c r="V167" s="2"/>
     </row>
     <row r="168" spans="1:22">
       <c r="A168" s="5" t="s">
@@ -10294,9 +10194,7 @@
         <v>272</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>50</v>
       </c>
@@ -10344,9 +10242,7 @@
         <v>273</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>50</v>
       </c>
@@ -10400,9 +10296,7 @@
         <v>273</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>50</v>
       </c>
@@ -10456,9 +10350,7 @@
       <c r="K171" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L171" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>50</v>
       </c>
@@ -10512,9 +10404,7 @@
         <v>273</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>50</v>
       </c>
@@ -10568,9 +10458,7 @@
         <v>273</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>50</v>
       </c>
@@ -10624,9 +10512,7 @@
         <v>273</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>50</v>
       </c>
@@ -10653,44 +10539,42 @@
       <c r="V174" s="5"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="5" t="s">
+      <c r="C175" s="2"/>
+      <c r="D175" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5" t="s">
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M175" s="5" t="s">
+      <c r="K175" s="2"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N175" s="5"/>
-      <c r="O175" s="5" t="s">
+      <c r="N175" s="2"/>
+      <c r="O175" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5" t="s">
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V175" s="5"/>
+      <c r="V175" s="2"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="5" t="s">
@@ -10718,9 +10602,7 @@
         <v>273</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>51</v>
       </c>
@@ -10745,44 +10627,42 @@
       <c r="V176" s="5"/>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5" t="s">
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M177" s="5" t="s">
+      <c r="K177" s="2"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N177" s="5" t="s">
+      <c r="N177" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O177" s="5"/>
-      <c r="P177" s="5"/>
-      <c r="Q177" s="5"/>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
-      <c r="U177" s="5" t="s">
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V177" s="5"/>
+      <c r="V177" s="2"/>
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="5" t="s">
@@ -10806,9 +10686,7 @@
         <v>272</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>52</v>
       </c>
@@ -10856,9 +10734,7 @@
         <v>273</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>52</v>
       </c>
@@ -10912,9 +10788,7 @@
       <c r="K180" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="L180" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>52</v>
       </c>
@@ -10941,44 +10815,42 @@
       </c>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5" t="s">
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M181" s="5" t="s">
+      <c r="K181" s="2"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N181" s="5" t="s">
+      <c r="N181" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O181" s="5"/>
-      <c r="P181" s="5"/>
-      <c r="Q181" s="5"/>
-      <c r="R181" s="5"/>
-      <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
-      <c r="U181" s="5" t="s">
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V181" s="5"/>
+      <c r="V181" s="2"/>
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="5" t="s">
@@ -11002,9 +10874,7 @@
         <v>272</v>
       </c>
       <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L182" s="4"/>
       <c r="M182" s="5" t="s">
         <v>53</v>
       </c>
@@ -11052,9 +10922,7 @@
         <v>273</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>53</v>
       </c>
@@ -11108,9 +10976,7 @@
       <c r="K184" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="L184" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>53</v>
       </c>
@@ -11137,44 +11003,42 @@
       </c>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5" t="s">
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M185" s="5" t="s">
+      <c r="K185" s="2"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N185" s="5" t="s">
+      <c r="N185" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O185" s="5"/>
-      <c r="P185" s="5"/>
-      <c r="Q185" s="5"/>
-      <c r="R185" s="5"/>
-      <c r="S185" s="5"/>
-      <c r="T185" s="5"/>
-      <c r="U185" s="5" t="s">
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V185" s="5"/>
+      <c r="V185" s="2"/>
     </row>
     <row r="186" spans="1:22">
       <c r="A186" s="5" t="s">
@@ -11198,9 +11062,7 @@
         <v>272</v>
       </c>
       <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>54</v>
       </c>
@@ -11248,9 +11110,7 @@
         <v>273</v>
       </c>
       <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>54</v>
       </c>
@@ -11304,9 +11164,7 @@
         <v>273</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>54</v>
       </c>
@@ -11360,9 +11218,7 @@
       <c r="K189" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L189" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>54</v>
       </c>
@@ -11416,9 +11272,7 @@
         <v>273</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>54</v>
       </c>
@@ -11472,9 +11326,7 @@
         <v>273</v>
       </c>
       <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>54</v>
       </c>
@@ -11528,9 +11380,7 @@
         <v>273</v>
       </c>
       <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L192" s="4"/>
       <c r="M192" s="5" t="s">
         <v>54</v>
       </c>
@@ -11557,48 +11407,46 @@
       <c r="V192" s="5"/>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="5" t="s">
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K193" s="5"/>
-      <c r="L193" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M193" s="5" t="s">
+      <c r="K193" s="2"/>
+      <c r="L193" s="4"/>
+      <c r="M193" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N193" s="5" t="s">
+      <c r="N193" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O193" s="5" t="s">
+      <c r="O193" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P193" s="5"/>
-      <c r="Q193" s="5"/>
-      <c r="R193" s="5"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
-      <c r="U193" s="5" t="s">
+      <c r="P193" s="2"/>
+      <c r="Q193" s="2"/>
+      <c r="R193" s="2"/>
+      <c r="S193" s="2"/>
+      <c r="T193" s="2"/>
+      <c r="U193" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V193" s="5"/>
+      <c r="V193" s="2"/>
     </row>
     <row r="194" spans="1:22">
       <c r="A194" s="5" t="s">
@@ -11628,9 +11476,7 @@
         <v>273</v>
       </c>
       <c r="K194" s="5"/>
-      <c r="L194" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="5" t="s">
         <v>55</v>
       </c>
@@ -11684,9 +11530,7 @@
       <c r="K195" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="L195" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L195" s="4"/>
       <c r="M195" s="5" t="s">
         <v>55</v>
       </c>
@@ -11713,48 +11557,46 @@
       </c>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C196" s="5" t="s">
+      <c r="C196" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="5" t="s">
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K196" s="5"/>
-      <c r="L196" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M196" s="5" t="s">
+      <c r="K196" s="2"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N196" s="5" t="s">
+      <c r="N196" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O196" s="5" t="s">
+      <c r="O196" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P196" s="5"/>
-      <c r="Q196" s="5"/>
-      <c r="R196" s="5"/>
-      <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
-      <c r="U196" s="5" t="s">
+      <c r="P196" s="2"/>
+      <c r="Q196" s="2"/>
+      <c r="R196" s="2"/>
+      <c r="S196" s="2"/>
+      <c r="T196" s="2"/>
+      <c r="U196" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V196" s="5"/>
+      <c r="V196" s="2"/>
     </row>
     <row r="197" spans="1:22">
       <c r="A197" s="5" t="s">
@@ -11784,9 +11626,7 @@
         <v>273</v>
       </c>
       <c r="K197" s="5"/>
-      <c r="L197" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L197" s="4"/>
       <c r="M197" s="5" t="s">
         <v>56</v>
       </c>
@@ -11840,9 +11680,7 @@
       <c r="K198" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="L198" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L198" s="4"/>
       <c r="M198" s="5" t="s">
         <v>56</v>
       </c>
@@ -11869,44 +11707,42 @@
       </c>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C199" s="5"/>
-      <c r="D199" s="5" t="s">
+      <c r="C199" s="2"/>
+      <c r="D199" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5" t="s">
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K199" s="5"/>
-      <c r="L199" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M199" s="5" t="s">
+      <c r="K199" s="2"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N199" s="5"/>
-      <c r="O199" s="5" t="s">
+      <c r="N199" s="2"/>
+      <c r="O199" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P199" s="5"/>
-      <c r="Q199" s="5"/>
-      <c r="R199" s="5"/>
-      <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
-      <c r="U199" s="5" t="s">
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V199" s="5"/>
+      <c r="V199" s="2"/>
     </row>
     <row r="200" spans="1:22">
       <c r="A200" s="5" t="s">
@@ -11932,9 +11768,7 @@
         <v>273</v>
       </c>
       <c r="K200" s="5"/>
-      <c r="L200" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="L200" s="4"/>
       <c r="M200" s="5" t="s">
         <v>57</v>
       </c>

--- a/data/output/FV2304_FV2210/INVOIC/31003.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31003.xlsx
@@ -1748,7 +1748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1771,6 +1771,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1779,6 +1782,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2219,7 +2225,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2555,7 +2561,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2789,7 +2795,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2977,7 +2983,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3167,7 +3173,7 @@
         <v>302</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3355,7 +3361,7 @@
         <v>302</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3543,7 +3549,7 @@
         <v>303</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3733,7 +3739,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3823,7 +3829,7 @@
         <v>304</v>
       </c>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2"/>
@@ -3963,7 +3969,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4131,21 +4137,21 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="6" t="s">
         <v>279</v>
       </c>
@@ -4155,18 +4161,18 @@
       <c r="L43" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
       <c r="U43" s="6" t="s">
         <v>272</v>
       </c>
@@ -4345,7 +4351,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5043,20 +5049,20 @@
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9" t="s">
+      <c r="K61" s="9"/>
+      <c r="L61" s="10" t="s">
         <v>328</v>
       </c>
       <c r="M61" s="5"/>
@@ -5074,25 +5080,25 @@
       <c r="A62" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8" t="s">
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>328</v>
       </c>
       <c r="M62" s="5"/>
@@ -5110,31 +5116,31 @@
       <c r="A63" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8" t="s">
+      <c r="F63" s="9"/>
+      <c r="G63" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="9" t="s">
+      <c r="J63" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10" t="s">
         <v>328</v>
       </c>
       <c r="M63" s="5"/>
@@ -5152,33 +5158,33 @@
       <c r="A64" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8" t="s">
+      <c r="F64" s="9"/>
+      <c r="G64" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8" t="s">
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K64" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="L64" s="9" t="s">
+      <c r="L64" s="10" t="s">
         <v>328</v>
       </c>
       <c r="M64" s="5"/>
@@ -5196,29 +5202,29 @@
       <c r="A65" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J65" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9" t="s">
+      <c r="J65" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10" t="s">
         <v>328</v>
       </c>
       <c r="M65" s="5"/>
@@ -5246,25 +5252,25 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11"/>
-      <c r="U66" s="11" t="s">
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+      <c r="S66" s="13"/>
+      <c r="T66" s="13"/>
+      <c r="U66" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="V66" s="11"/>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -5280,27 +5286,27 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11"/>
-      <c r="U67" s="11" t="s">
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+      <c r="S67" s="13"/>
+      <c r="T67" s="13"/>
+      <c r="U67" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="V67" s="11"/>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -5316,33 +5322,33 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11" t="s">
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11" t="s">
+      <c r="S68" s="13"/>
+      <c r="T68" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="U68" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="V68" s="11"/>
+      <c r="U68" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -5358,33 +5364,33 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11" t="s">
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U69" s="11" t="s">
+      <c r="U69" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="V69" s="11" t="s">
+      <c r="V69" s="13" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5402,31 +5408,31 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11"/>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11" t="s">
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="U70" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="V70" s="11"/>
+      <c r="U70" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="2" t="s">
@@ -5449,7 +5455,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5635,7 +5641,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5995,7 +6001,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6693,22 +6699,22 @@
       <c r="B96" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8" t="s">
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K96" s="8" t="s">
+      <c r="K96" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="L96" s="9" t="s">
+      <c r="L96" s="10" t="s">
         <v>328</v>
       </c>
       <c r="M96" s="5"/>
@@ -6726,25 +6732,25 @@
       <c r="A97" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>328</v>
       </c>
       <c r="M97" s="5"/>
@@ -6762,31 +6768,31 @@
       <c r="A98" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8" t="s">
+      <c r="F98" s="9"/>
+      <c r="G98" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="J98" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="J98" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>328</v>
       </c>
       <c r="M98" s="5"/>
@@ -6804,33 +6810,33 @@
       <c r="A99" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8" t="s">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="K99" s="8" t="s">
+      <c r="K99" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="L99" s="9" t="s">
+      <c r="L99" s="10" t="s">
         <v>328</v>
       </c>
       <c r="M99" s="5"/>
@@ -6848,29 +6854,29 @@
       <c r="A100" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="J100" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>328</v>
       </c>
       <c r="M100" s="5"/>
@@ -6898,25 +6904,25 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M101" s="11" t="s">
+      <c r="M101" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O101" s="11"/>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="11"/>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11"/>
-      <c r="U101" s="11" t="s">
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+      <c r="U101" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="V101" s="11" t="s">
+      <c r="V101" s="13" t="s">
         <v>310</v>
       </c>
     </row>
@@ -6934,27 +6940,27 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="M102" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="N102" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11"/>
-      <c r="U102" s="11" t="s">
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+      <c r="U102" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="V102" s="11"/>
+      <c r="V102" s="13"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -6970,33 +6976,33 @@
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
-      <c r="L103" s="10" t="s">
+      <c r="L103" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M103" s="11" t="s">
+      <c r="M103" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="N103" s="11" t="s">
+      <c r="N103" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O103" s="11" t="s">
+      <c r="O103" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P103" s="11" t="s">
+      <c r="P103" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q103" s="11"/>
-      <c r="R103" s="11" t="s">
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="S103" s="11"/>
-      <c r="T103" s="11" t="s">
+      <c r="S103" s="13"/>
+      <c r="T103" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="U103" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="V103" s="11"/>
+      <c r="U103" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="V103" s="13"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -7012,33 +7018,33 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
-      <c r="L104" s="10" t="s">
+      <c r="L104" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M104" s="11" t="s">
+      <c r="M104" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="N104" s="11" t="s">
+      <c r="N104" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O104" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P104" s="11" t="s">
+      <c r="P104" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q104" s="11"/>
-      <c r="R104" s="11" t="s">
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="S104" s="11"/>
-      <c r="T104" s="11" t="s">
+      <c r="S104" s="13"/>
+      <c r="T104" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U104" s="11" t="s">
+      <c r="U104" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="V104" s="11" t="s">
+      <c r="V104" s="13" t="s">
         <v>309</v>
       </c>
     </row>
@@ -7056,31 +7062,31 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="N105" s="11" t="s">
+      <c r="N105" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O105" s="11" t="s">
+      <c r="O105" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P105" s="11" t="s">
+      <c r="P105" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q105" s="11"/>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11" t="s">
+      <c r="Q105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="U105" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="V105" s="11"/>
+      <c r="U105" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="V105" s="13"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="2" t="s">
@@ -7103,7 +7109,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7442,31 +7448,31 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N113" s="11" t="s">
+      <c r="N113" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O113" s="11" t="s">
+      <c r="O113" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P113" s="11" t="s">
+      <c r="P113" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11" t="s">
+      <c r="Q113" s="13"/>
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="U113" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="V113" s="11"/>
+      <c r="U113" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="V113" s="13"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="2" t="s">
@@ -7491,7 +7497,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7639,7 +7645,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7881,7 +7887,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8017,7 +8023,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8221,7 +8227,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8465,7 +8471,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8677,7 +8683,7 @@
         <v>318</v>
       </c>
       <c r="L138" s="4"/>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N138" s="2" t="s">
@@ -8999,7 +9005,7 @@
         <v>321</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -9203,7 +9209,7 @@
         <v>321</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9407,7 +9413,7 @@
         <v>322</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -9611,7 +9617,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9799,7 +9805,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10155,7 +10161,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10559,7 +10565,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N175" s="2"/>
@@ -10647,7 +10653,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -10835,7 +10841,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11023,7 +11029,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -11429,7 +11435,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -11579,7 +11585,7 @@
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="4"/>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N196" s="2" t="s">
@@ -11727,7 +11733,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N199" s="2"/>
